--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3955544.367046713</v>
+        <v>3952999.774352431</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>143.2690424640644</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.72734108435045</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>147.5960661993973</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443431</v>
+        <v>34.1083371873407</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>366.1290083420805</v>
       </c>
       <c r="C5" t="n">
-        <v>54.63017187316853</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760031</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425892</v>
+        <v>23.94240680425906</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>141.9290326924373</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074793</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -1032,16 +1032,16 @@
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>2.934209813009423</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>113.3237299842586</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589153</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>72.89889574101036</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>77.01236932426144</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>128.1756630153502</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.66634162564299</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>113.5548005097651</v>
       </c>
     </row>
     <row r="10">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.8676068577095</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>142.7102789975396</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>105.8460632289453</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701343</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>220.8645017249725</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060472</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2087,10 +2087,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>191.6604102493273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>125.2851635392055</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.242026426225</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>672.242026426225</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>672.242026426225</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>527.525821917069</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678656</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513809</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426225</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>672.242026426225</v>
+        <v>730.1757415093705</v>
       </c>
       <c r="T2" t="n">
-        <v>672.242026426225</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="U2" t="n">
-        <v>672.242026426225</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="V2" t="n">
-        <v>672.242026426225</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>672.242026426225</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>672.242026426225</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.242026426225</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.4310870549961</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>338.4310870549961</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>338.4310870549961</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>338.4310870549961</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>191.896529081881</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>191.896529081881</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153784</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296056</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264276</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264276</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264276</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264276</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V3" t="n">
-        <v>527.8508720714808</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W3" t="n">
-        <v>527.8508720714808</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X3" t="n">
-        <v>527.8508720714808</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y3" t="n">
-        <v>338.4310870549961</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>49.45491281910429</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1350.951391437439</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.76939964636</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="D5" t="n">
-        <v>937.5037010396093</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="E5" t="n">
-        <v>551.715448441365</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="F5" t="n">
-        <v>140.7295436517574</v>
+        <v>358.2773904637505</v>
       </c>
       <c r="G5" t="n">
-        <v>128.353902506253</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>128.353902506253</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="J5" t="n">
         <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746981</v>
+        <v>277.9807166746978</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030769</v>
+        <v>521.2049416030762</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709193</v>
+        <v>823.5081935709183</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582754</v>
+        <v>1135.316836582752</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079242</v>
+        <v>1416.41363507924</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.82224833276</v>
+        <v>1621.822248332759</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837887</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540656</v>
+        <v>1703.718566540653</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301004</v>
+        <v>1703.718566540653</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437439</v>
+        <v>1491.859231677089</v>
       </c>
       <c r="U5" t="n">
-        <v>1350.951391437439</v>
+        <v>1491.859231677089</v>
       </c>
       <c r="V5" t="n">
-        <v>1350.951391437439</v>
+        <v>1491.859231677089</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.951391437439</v>
+        <v>1139.090576406975</v>
       </c>
       <c r="X5" t="n">
-        <v>1350.951391437439</v>
+        <v>1139.090576406975</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.951391437439</v>
+        <v>1139.090576406975</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.373744883175</v>
+        <v>428.3223248269011</v>
       </c>
       <c r="C6" t="n">
-        <v>177.920715602048</v>
+        <v>428.3223248269011</v>
       </c>
       <c r="D6" t="n">
-        <v>177.920715602048</v>
+        <v>428.3223248269011</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675774</v>
+        <v>269.0848698214456</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675774</v>
+        <v>269.0848698214456</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675774</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787554</v>
+        <v>61.6678846478754</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806068</v>
+        <v>186.1577239806064</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189987</v>
+        <v>399.872217118998</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223514</v>
+        <v>668.6238185223503</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352485</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906552</v>
+        <v>1401.100270703774</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906552</v>
+        <v>1258.30937869937</v>
       </c>
       <c r="T6" t="n">
-        <v>1250.338042626307</v>
+        <v>1062.768760419125</v>
       </c>
       <c r="U6" t="n">
-        <v>1022.222900581863</v>
+        <v>834.6536183746811</v>
       </c>
       <c r="V6" t="n">
-        <v>1022.222900581863</v>
+        <v>599.5015101429383</v>
       </c>
       <c r="W6" t="n">
-        <v>767.9855438536617</v>
+        <v>599.5015101429383</v>
       </c>
       <c r="X6" t="n">
-        <v>560.1340436481289</v>
+        <v>596.5376618469692</v>
       </c>
       <c r="Y6" t="n">
-        <v>352.373744883175</v>
+        <v>596.5376618469692</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.0264704422715</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="C7" t="n">
-        <v>149.0264704422715</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675774</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574712</v>
+        <v>64.24066662574694</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584116</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347978</v>
+        <v>206.9680378347973</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195375</v>
+        <v>287.8841338195368</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934727</v>
+        <v>342.3101561934719</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040921</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040921</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040921</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400005</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400005</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400005</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858016</v>
+        <v>108.1933045400005</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858016</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.0264704422715</v>
+        <v>34.5580563167577</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>502.112626779402</v>
+        <v>845.4515754612523</v>
       </c>
       <c r="C8" t="n">
-        <v>133.1501098389903</v>
+        <v>845.4515754612523</v>
       </c>
       <c r="D8" t="n">
-        <v>133.1501098389903</v>
+        <v>487.1858768545018</v>
       </c>
       <c r="E8" t="n">
-        <v>133.1501098389903</v>
+        <v>487.1858768545018</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>480.2403761052984</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
         <v>43.36919653809306</v>
@@ -4805,16 +4805,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457209</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.481122113638</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="W8" t="n">
-        <v>888.7124668435238</v>
+        <v>1605.517173786454</v>
       </c>
       <c r="X8" t="n">
-        <v>888.7124668435238</v>
+        <v>1232.051415525374</v>
       </c>
       <c r="Y8" t="n">
-        <v>888.7124668435238</v>
+        <v>1232.051415525374</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.9573223213125</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="C9" t="n">
-        <v>375.5042930401855</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="D9" t="n">
-        <v>226.5698833789342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>226.5698833789342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4899,34 +4899,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
         <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1734.238298972664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1506.136709105928</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1270.984600874186</v>
+        <v>937.3096188498791</v>
       </c>
       <c r="W9" t="n">
-        <v>1016.747244145984</v>
+        <v>683.0722621216776</v>
       </c>
       <c r="X9" t="n">
-        <v>808.8957439404512</v>
+        <v>475.2207619161447</v>
       </c>
       <c r="Y9" t="n">
-        <v>601.1354451754974</v>
+        <v>360.5189432194123</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>351.3531641126922</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>201.2365247003565</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>201.2365247003565</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>54.3465772024461</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
         <v>43.36919653809306</v>
@@ -4963,49 +4963,49 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126812</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126812</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>187.5209935053048</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>187.5209935053048</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5048,34 +5048,34 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.843151638089</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>741.843151638089</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>591.7265122257533</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>591.7265122257533</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5261,55 +5261,55 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5598,22 +5598,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101294</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,64 +5729,64 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5990,16 +5990,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,16 +6066,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
         <v>175.9033664000583</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,19 +6780,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1368.154262550759</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>1920.063992790046</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2517.442480416598</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7652,13 +7652,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.57498479398593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.31997266427169</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G19" t="n">
-        <v>110.0033420516641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>25.74504007796097</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>40.23897475306337</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>84.77391660562006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619388.6609627878</v>
+        <v>619388.6609627879</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900056</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900056</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900059</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900063</v>
-      </c>
       <c r="L2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253133</v>
+        <v>270592.3620253124</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231922</v>
+        <v>115410.0540231927</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588199</v>
+        <v>62913.63765881974</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197476</v>
+        <v>27875.25362197483</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26418,7 +26418,7 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263462</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26427,13 +26427,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186739</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186738</v>
@@ -26445,19 +26445,19 @@
         <v>14826.69604186738</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936824</v>
+        <v>76435.73471936819</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105837.4979023055</v>
+        <v>-105837.4979023051</v>
       </c>
       <c r="C6" t="n">
-        <v>267409.2501932556</v>
+        <v>267409.2501932563</v>
       </c>
       <c r="D6" t="n">
-        <v>446229.6438963208</v>
+        <v>446229.6438963203</v>
       </c>
       <c r="E6" t="n">
-        <v>89754.16624996584</v>
+        <v>89719.42832453051</v>
       </c>
       <c r="F6" t="n">
-        <v>691197.3738242311</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="G6" t="n">
-        <v>691197.3738242316</v>
+        <v>691162.6358987954</v>
       </c>
       <c r="H6" t="n">
-        <v>691197.3738242313</v>
+        <v>691162.6358987957</v>
       </c>
       <c r="I6" t="n">
-        <v>691197.3738242318</v>
+        <v>691162.635898796</v>
       </c>
       <c r="J6" t="n">
-        <v>642132.4290956872</v>
+        <v>642097.6911702513</v>
       </c>
       <c r="K6" t="n">
-        <v>628283.736165412</v>
+        <v>628248.9982399762</v>
       </c>
       <c r="L6" t="n">
-        <v>663322.1202022572</v>
+        <v>663287.3822768212</v>
       </c>
       <c r="M6" t="n">
-        <v>534050.9932726338</v>
+        <v>534016.2553471981</v>
       </c>
       <c r="N6" t="n">
-        <v>691197.3738242319</v>
+        <v>691162.6358987961</v>
       </c>
       <c r="O6" t="n">
-        <v>691197.3738242317</v>
+        <v>691162.6358987959</v>
       </c>
       <c r="P6" t="n">
-        <v>691197.3738242318</v>
+        <v>691162.6358987959</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950623</v>
+        <v>758.8996292950617</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594717</v>
+        <v>431.9757039594712</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821578</v>
+        <v>210.429688382157</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262187</v>
+        <v>94.81103524262232</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931512</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.139252766692</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931512</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931512</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.139252766692</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>238.6613276081974</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>139.0484721057026</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
-        <v>85.20452095002798</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>86.52244598482497</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098452</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716297</v>
+        <v>34.57770336425653</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>16.60483332140006</v>
       </c>
       <c r="C5" t="n">
-        <v>310.642719897839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.8578877276004</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>15.7160477629636</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493751</v>
+        <v>43.32085084937514</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074786</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>202.838775390468</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>35.29174303395371</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304041</v>
+        <v>30.24193919304048</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589145</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>152.8107596480268</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>329.86367641745</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>283.6950718282766</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.8668420242244</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
@@ -27950,7 +27950,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>92.12789526753929</v>
       </c>
     </row>
     <row r="10">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>155.5838942532223</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>109.4273643262884</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28807,10 +28807,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29044,13 +29044,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.050852781085673</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429365</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286703</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.079914452027</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511781</v>
+        <v>481.4474502511777</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968104</v>
+        <v>535.70305339681</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.3712888610697</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191494</v>
+        <v>514.0343715191491</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860965</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634657</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898984</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868538</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506249</v>
+        <v>56.20152915062486</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316633</v>
+        <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.427605172189</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658086</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146867</v>
+        <v>424.5470671468667</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374454</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.707283587249</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547498</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947721</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378887</v>
+        <v>6.579516597378881</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.15475366734532</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463557</v>
+        <v>96.75348224635563</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.5197755399139</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.4189747528489</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054716</v>
+        <v>61.53307486054711</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830806</v>
+        <v>5.847259438830801</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656358</v>
+        <v>0.07464586517656352</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31528,10 +31528,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31540,22 +31540,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31607,19 +31607,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31628,10 +31628,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31677,22 +31677,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31704,13 +31704,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32549,31 +32549,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>251.8861049150245</v>
+        <v>728.6709493241812</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,19 +32786,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
-        <v>434.178635838203</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P33" t="n">
-        <v>500.7380235181012</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>169.9530009943068</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,13 +33977,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,25 +34445,25 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198405</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070467</v>
+        <v>167.9900634070464</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811905</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695377</v>
+        <v>305.3568201695373</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644788</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974627</v>
+        <v>283.9361600974623</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.4834477308269</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890162</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092697</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573043</v>
+        <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923148</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.4662640437903</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635334</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930009</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729188</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872844</v>
+        <v>68.38629016872827</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554469</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501498</v>
+        <v>68.57507023501483</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230898</v>
+        <v>75.59399159230881</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761582</v>
+        <v>81.73343028761568</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569214</v>
+        <v>54.97578017569199</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235231</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35188,13 +35188,13 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35258,7 +35258,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35270,7 +35270,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>120.5443928316912</v>
+        <v>597.3292372408479</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
-        <v>291.5823913937585</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P33" t="n">
-        <v>366.763616103771</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>35.9785935799765</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
